--- a/CAD_and_drawing/fabriquation piece.xlsx
+++ b/CAD_and_drawing/fabriquation piece.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\CAD_and_drawing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA88F89-233F-4AFC-8B06-7F3D4C31C89E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9591F0EE-D6C7-49C7-B3F1-99DC43E0B5CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="1215" windowWidth="13965" windowHeight="11535" xr2:uid="{80F2BC40-2BCD-4CB2-AF48-83C6FB64874C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{80F2BC40-2BCD-4CB2-AF48-83C6FB64874C}"/>
   </bookViews>
   <sheets>
     <sheet name="impression" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>impression pieces</t>
   </si>
@@ -88,12 +88,6 @@
     <t>planche en longueur</t>
   </si>
   <si>
-    <t>mat bois</t>
-  </si>
-  <si>
-    <t>layer 0.2 , mat ABS</t>
-  </si>
-  <si>
     <t>planche en largeur</t>
   </si>
   <si>
@@ -104,6 +98,21 @@
   </si>
   <si>
     <t>au bout des planche</t>
+  </si>
+  <si>
+    <t>layer 0.3 , mat ABS</t>
+  </si>
+  <si>
+    <t>mat bois contreplaqué 3/4 40mm X 340mm</t>
+  </si>
+  <si>
+    <t>mat bois contreplaqué 3/4 40mm X 1535mm</t>
+  </si>
+  <si>
+    <t>mat bois tige 1/4 long 1445mm</t>
+  </si>
+  <si>
+    <t>blk</t>
   </si>
 </sst>
 </file>
@@ -165,10 +174,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +499,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,28 +512,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -536,7 +545,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -550,7 +562,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -561,10 +576,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
@@ -575,10 +593,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
@@ -598,39 +619,39 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -642,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1">
@@ -654,14 +675,14 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,10 +690,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">

--- a/CAD_and_drawing/fabriquation piece.xlsx
+++ b/CAD_and_drawing/fabriquation piece.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\CAD_and_drawing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alext\Documents\GitHub\projet-5-credits\CAD_and_drawing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9591F0EE-D6C7-49C7-B3F1-99DC43E0B5CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F763CC-0420-44B1-AA0F-56922E197E49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{80F2BC40-2BCD-4CB2-AF48-83C6FB64874C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80F2BC40-2BCD-4CB2-AF48-83C6FB64874C}"/>
   </bookViews>
   <sheets>
     <sheet name="impression" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>impression pieces</t>
   </si>
@@ -91,9 +91,6 @@
     <t>planche en largeur</t>
   </si>
   <si>
-    <t>tige au 4 coins</t>
-  </si>
-  <si>
     <t>au bout des tige</t>
   </si>
   <si>
@@ -113,6 +110,21 @@
   </si>
   <si>
     <t>blk</t>
+  </si>
+  <si>
+    <t>etat</t>
+  </si>
+  <si>
+    <t>fabrique</t>
+  </si>
+  <si>
+    <t>adapteur goujont</t>
+  </si>
+  <si>
+    <t>entre les goujon</t>
+  </si>
+  <si>
+    <t>tige au 4 coins en deux section 8 goujont</t>
   </si>
 </sst>
 </file>
@@ -134,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,7 +161,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,11 +204,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,48 +545,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E43E55B-435F-4F58-945B-C91499EC587B}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -545,16 +594,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -562,47 +611,64 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -616,46 +682,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C74A5A0-9D02-498E-AC97-F5518C1AAEE6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -663,14 +733,17 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -678,27 +751,31 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CAD_and_drawing/fabriquation piece.xlsx
+++ b/CAD_and_drawing/fabriquation piece.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alext\Documents\GitHub\projet-5-credits\CAD_and_drawing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\CAD_and_drawing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F763CC-0420-44B1-AA0F-56922E197E49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D46ECA-D405-491D-91AE-2CB01216975C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80F2BC40-2BCD-4CB2-AF48-83C6FB64874C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{80F2BC40-2BCD-4CB2-AF48-83C6FB64874C}"/>
   </bookViews>
   <sheets>
     <sheet name="impression" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>impression pieces</t>
   </si>
@@ -106,9 +106,6 @@
     <t>mat bois contreplaqué 3/4 40mm X 1535mm</t>
   </si>
   <si>
-    <t>mat bois tige 1/4 long 1445mm</t>
-  </si>
-  <si>
     <t>blk</t>
   </si>
   <si>
@@ -118,13 +115,40 @@
     <t>fabrique</t>
   </si>
   <si>
-    <t>adapteur goujont</t>
-  </si>
-  <si>
     <t>entre les goujon</t>
   </si>
   <si>
     <t>tige au 4 coins en deux section 8 goujont</t>
+  </si>
+  <si>
+    <t>5-16_TO5-16_adapt</t>
+  </si>
+  <si>
+    <t>1-4_TO5-16_adapt</t>
+  </si>
+  <si>
+    <t>état</t>
+  </si>
+  <si>
+    <t>fabriqué</t>
+  </si>
+  <si>
+    <t>a imprimé</t>
+  </si>
+  <si>
+    <t>mat bois tige 1/4 long 1445mm aprox, essaiyé au plus long et reduire selon la camera</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>but du terrain</t>
+  </si>
+  <si>
+    <t>carbon fiber</t>
+  </si>
+  <si>
+    <t>a decoupé au bonne longue</t>
   </si>
 </sst>
 </file>
@@ -146,18 +170,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -196,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,27 +225,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,48 +569,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E43E55B-435F-4F58-945B-C91499EC587B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -597,13 +626,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -614,13 +646,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -631,13 +666,16 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -648,28 +686,79 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -684,48 +773,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C74A5A0-9D02-498E-AC97-F5518C1AAEE6}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -739,11 +829,11 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -757,25 +847,27 @@
       <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9">
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7">
         <v>8</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CAD_and_drawing/fabriquation piece.xlsx
+++ b/CAD_and_drawing/fabriquation piece.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\CAD_and_drawing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cocoo\Documents\GitHub\projet-5-credits\CAD_and_drawing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D46ECA-D405-491D-91AE-2CB01216975C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F101584-C8AF-43C4-A175-09282D94A3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{80F2BC40-2BCD-4CB2-AF48-83C6FB64874C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80F2BC40-2BCD-4CB2-AF48-83C6FB64874C}"/>
   </bookViews>
   <sheets>
     <sheet name="impression" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>impression pieces</t>
   </si>
@@ -133,9 +133,6 @@
     <t>fabriqué</t>
   </si>
   <si>
-    <t>a imprimé</t>
-  </si>
-  <si>
     <t>mat bois tige 1/4 long 1445mm aprox, essaiyé au plus long et reduire selon la camera</t>
   </si>
   <si>
@@ -149,6 +146,24 @@
   </si>
   <si>
     <t>a decoupé au bonne longue</t>
+  </si>
+  <si>
+    <t>a imprimer</t>
+  </si>
+  <si>
+    <t>Standby</t>
+  </si>
+  <si>
+    <t>BALL_END_5_16</t>
+  </si>
+  <si>
+    <t>à chaque coin</t>
+  </si>
+  <si>
+    <t>layer 0.3, mat ABS</t>
+  </si>
+  <si>
+    <t>à imprimer</t>
   </si>
 </sst>
 </file>
@@ -170,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +216,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -241,16 +262,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -571,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E43E55B-435F-4F58-945B-C91499EC587B}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,13 +607,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,7 +652,7 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -651,8 +672,8 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>32</v>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,8 +732,8 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>32</v>
+      <c r="F7" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,19 +752,19 @@
       <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>32</v>
+      <c r="F8" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
@@ -751,14 +772,29 @@
       <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>32</v>
+      <c r="F9" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="F10" s="13"/>
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -773,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C74A5A0-9D02-498E-AC97-F5518C1AAEE6}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -786,13 +822,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,14 +895,14 @@
         <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7">
         <v>8</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
